--- a/data/trans_dic/P37A$otros-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P37A$otros-Provincia-trans_dic.xlsx
@@ -728,7 +728,7 @@
       </c>
       <c r="L5" s="5" t="inlineStr"/>
       <c r="M5" s="5" t="n">
-        <v>0.001355289664856406</v>
+        <v>0.00135837328798305</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -742,30 +742,30 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01608803662057396</v>
+        <v>0.01611486171371939</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.02542075809742444</v>
+        <v>0.02094109124267479</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.01958735039362932</v>
+        <v>0.01990205120664303</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01023288210398063</v>
+        <v>0.01111097559773098</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.008240650963803192</v>
+        <v>0.006712788726166334</v>
       </c>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="n">
-        <v>0.01376513322562417</v>
+        <v>0.01409902318489929</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.005117830303945259</v>
+        <v>0.005883642135322551</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01772322219142704</v>
+        <v>0.016937156854041</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
@@ -841,10 +841,10 @@
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.02486766319731385</v>
+        <v>0.02523018361757278</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0008786664794132609</v>
+        <v>0.000881806972538529</v>
       </c>
       <c r="L8" s="5" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02478714701370563</v>
+        <v>0.02484723620335363</v>
       </c>
     </row>
     <row r="9">
@@ -864,36 +864,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0106513345684966</v>
+        <v>0.01224846093458879</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01443106967907567</v>
+        <v>0.01165134809717296</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01277406016928614</v>
+        <v>0.01467531651780369</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05699554435979085</v>
+        <v>0.05577337490691676</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01297679103279754</v>
+        <v>0.01454061048989941</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.05347419849595701</v>
+        <v>0.05484674886044971</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.007772690705259102</v>
+        <v>0.008104085441972057</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.007159268262655312</v>
+        <v>0.00727526659830552</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.007212717848864696</v>
+        <v>0.006201829695555687</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04782389738961393</v>
+        <v>0.04943215975365449</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.004292428323753496</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.004626500547200484</v>
+        <v>0.004626500547200483</v>
       </c>
     </row>
     <row r="11">
@@ -960,7 +960,7 @@
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.002626834355538866</v>
+        <v>0.002650613285010043</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -968,10 +968,10 @@
       <c r="K11" s="5" t="inlineStr"/>
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="n">
-        <v>0.001347758102842309</v>
+        <v>0.001352538652644898</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.001373269239118059</v>
+        <v>0.001380843425276268</v>
       </c>
     </row>
     <row r="12">
@@ -985,23 +985,23 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.01905520353102624</v>
+        <v>0.01815700894379087</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.02227889919920846</v>
+        <v>0.02448944621849782</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01127338299128669</v>
+        <v>0.0115043765617464</v>
       </c>
       <c r="K12" s="5" t="inlineStr"/>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>0.01160855134975468</v>
+        <v>0.0115954612319533</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01101257803538104</v>
+        <v>0.0116204763262725</v>
       </c>
     </row>
     <row r="13">
@@ -1025,7 +1025,7 @@
         <v>0.0109923749915164</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01241974188267686</v>
+        <v>0.01241974188267685</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>0.009916815431357768</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.01232796995213429</v>
+        <v>0.01232796995213428</v>
       </c>
     </row>
     <row r="14">
@@ -1062,30 +1062,30 @@
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>0.002229190501414735</v>
+        <v>0.002240718446028207</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004494596025925836</v>
+        <v>0.004330975278702472</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.002989423696216546</v>
+        <v>0.00260686626677456</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.002265955249337266</v>
+        <v>0.002290422866097569</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004751052666008621</v>
+        <v>0.005132467774454456</v>
       </c>
       <c r="K14" s="5" t="inlineStr"/>
       <c r="L14" s="5" t="n">
-        <v>0.001340278818935637</v>
+        <v>0.001517648961760789</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.004283133862299848</v>
+        <v>0.003560771908886697</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.006449904111185207</v>
+        <v>0.006086531942911589</v>
       </c>
     </row>
     <row r="15">
@@ -1098,30 +1098,30 @@
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.03254032606682177</v>
+        <v>0.0285229464059247</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02799534897637993</v>
+        <v>0.0270864753128825</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.02631082481884294</v>
+        <v>0.02405019026021682</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02545859279856078</v>
+        <v>0.02660502008368014</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02971604553087631</v>
+        <v>0.03006055209978181</v>
       </c>
       <c r="K15" s="5" t="inlineStr"/>
       <c r="L15" s="5" t="n">
-        <v>0.01257022250020695</v>
+        <v>0.01310580378823735</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02190605740568232</v>
+        <v>0.02136471068744721</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02349337103768229</v>
+        <v>0.022258931012486</v>
       </c>
     </row>
     <row r="16">
@@ -1212,20 +1212,20 @@
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>0.02628076344545898</v>
+        <v>0.02414192072950475</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.01955063108983945</v>
+        <v>0.01597768235280666</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01211628521414856</v>
+        <v>0.01317348415087442</v>
       </c>
       <c r="L18" s="5" t="inlineStr"/>
       <c r="M18" s="5" t="inlineStr"/>
       <c r="N18" s="5" t="n">
-        <v>0.009833354245481374</v>
+        <v>0.009943923993124663</v>
       </c>
     </row>
     <row r="19">
@@ -1261,7 +1261,7 @@
         <v>0.005311180685589998</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.002456753256638215</v>
+        <v>0.002456753256638214</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0</v>
@@ -1318,18 +1318,18 @@
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.02647903367374714</v>
+        <v>0.02631369393499149</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01221819987791609</v>
+        <v>0.01403167750604896</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="n">
-        <v>0.01487968873087289</v>
+        <v>0.01351513163022755</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.006046825879500251</v>
+        <v>0.006140704893778205</v>
       </c>
     </row>
     <row r="22">
@@ -1353,7 +1353,7 @@
         <v>0.005379144308093208</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.008640689441258278</v>
+        <v>0.008640689441258276</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0</v>
@@ -1390,30 +1390,30 @@
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
-        <v>0</v>
+        <v>0.001604760728657963</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.003083355927910039</v>
+        <v>0.003741355641802816</v>
       </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.001326167726665514</v>
+        <v>0.001341255710270933</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.005892918810714224</v>
+        <v>0.005642529475167453</v>
       </c>
       <c r="K23" s="5" t="inlineStr"/>
       <c r="L23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.001800299115805201</v>
+        <v>0.001814937021174516</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.005977680700917867</v>
+        <v>0.006154978014167744</v>
       </c>
     </row>
     <row r="24">
@@ -1426,30 +1426,30 @@
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.0149748762764224</v>
+        <v>0.01562870543096081</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01823655262376888</v>
+        <v>0.01703079439374009</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.01137909698626606</v>
+        <v>0.008219756820419158</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01275674684289773</v>
+        <v>0.01301492324951153</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02949311356307223</v>
+        <v>0.02727699955295762</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
       <c r="L24" s="5" t="n">
-        <v>0.004646053328038111</v>
+        <v>0.004305487383321417</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.01079735026676922</v>
+        <v>0.01032852410998834</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.01947526528728683</v>
+        <v>0.0201014086894784</v>
       </c>
     </row>
     <row r="25">
@@ -1524,7 +1524,7 @@
       <c r="I26" s="5" t="inlineStr"/>
       <c r="J26" s="5" t="inlineStr"/>
       <c r="K26" s="5" t="n">
-        <v>0.0005062477997321185</v>
+        <v>0.0005053736786254872</v>
       </c>
       <c r="L26" s="5" t="inlineStr"/>
       <c r="M26" s="5" t="n">
@@ -1542,30 +1542,30 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.006880072759650162</v>
+        <v>0.008037723497083083</v>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="n">
-        <v>0.007151295511474024</v>
+        <v>0.007880738077565284</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01383324355173368</v>
+        <v>0.01320336152971021</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.00759959423689187</v>
+        <v>0.008439206060201121</v>
       </c>
       <c r="H27" s="5" t="inlineStr"/>
       <c r="I27" s="5" t="inlineStr"/>
       <c r="J27" s="5" t="inlineStr"/>
       <c r="K27" s="5" t="n">
-        <v>0.005474798612077912</v>
+        <v>0.005985119787378274</v>
       </c>
       <c r="L27" s="5" t="inlineStr"/>
       <c r="M27" s="5" t="n">
-        <v>0.003711973214745105</v>
+        <v>0.003491537525780495</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.006051924881665253</v>
+        <v>0.006995982680716321</v>
       </c>
     </row>
     <row r="28">
@@ -1589,7 +1589,7 @@
         <v>0.003705843536354739</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.009304857811204256</v>
+        <v>0.009304857811204255</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.00123473881142692</v>
@@ -1613,7 +1613,7 @@
         <v>0.003497415942638065</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.009908743652142475</v>
+        <v>0.009908743652142471</v>
       </c>
     </row>
     <row r="29">
@@ -1624,40 +1624,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0002693537033697703</v>
+        <v>0.0002652827796223801</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.001908215248224411</v>
+        <v>0.001854016867011989</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.00636393247469071</v>
+        <v>0.006320184992850576</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0002929374524505126</v>
+        <v>0.0003885584790671905</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.0005581612647865218</v>
+        <v>0.0005480701302000877</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.001788119160726037</v>
+        <v>0.001746150669219554</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.007827818658528562</v>
+        <v>0.007920205978707384</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0005145551213557105</v>
+        <v>0.0005282195708414597</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.0004238992720510955</v>
+        <v>0.0004474408532681308</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.002219199395015459</v>
+        <v>0.00227129287474801</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.007721699397380198</v>
+        <v>0.00775315108588155</v>
       </c>
     </row>
     <row r="30">
@@ -1668,40 +1668,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.002520631719592284</v>
+        <v>0.002493271250658491</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.00198003213668661</v>
+        <v>0.002063150028326012</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.006636762364796529</v>
+        <v>0.006607660991285741</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01385215385745679</v>
+        <v>0.01386230002536737</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.002946339723928275</v>
+        <v>0.003288383968618526</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.003341852054076225</v>
+        <v>0.003388041014813208</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.005933446970710551</v>
+        <v>0.005818055545248589</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.01434917173141325</v>
+        <v>0.01465375677489759</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.002261977869129661</v>
+        <v>0.002285702454601631</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.00212103269004861</v>
+        <v>0.002063724531528434</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.00514908710837895</v>
+        <v>0.005275412355832646</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.01293613886144544</v>
+        <v>0.01275045990228167</v>
       </c>
     </row>
     <row r="31">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="L6" s="6" t="inlineStr"/>
       <c r="M6" s="6" t="n">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2010,30 +2010,30 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4392</v>
+        <v>4400</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>7468</v>
+        <v>6152</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>5655</v>
+        <v>5746</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3234</v>
+        <v>3512</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>4399</v>
+        <v>3584</v>
       </c>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="n">
-        <v>8018</v>
+        <v>8212</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>3249</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="8">
@@ -2145,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9405</v>
+        <v>8988</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
@@ -2153,10 +2153,10 @@
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>13590</v>
+        <v>13788</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="L10" s="6" t="n">
         <v>0</v>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>26699</v>
+        <v>26764</v>
       </c>
     </row>
     <row r="11">
@@ -2176,36 +2176,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5252</v>
+        <v>6039</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7295</v>
+        <v>5890</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6420</v>
+        <v>7375</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30245</v>
+        <v>29596</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6540</v>
+        <v>7328</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>29223</v>
+        <v>29973</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7750</v>
+        <v>8080</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7369</v>
+        <v>7488</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7398</v>
+        <v>6361</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>51513</v>
+        <v>53245</v>
       </c>
     </row>
     <row r="12">
@@ -2316,7 +2316,7 @@
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="J14" s="6" t="n">
         <v>0</v>
@@ -2324,10 +2324,10 @@
       <c r="K14" s="6" t="inlineStr"/>
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="n">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>923</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15">
@@ -2341,23 +2341,23 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>6021</v>
+        <v>5737</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>7493</v>
+        <v>8236</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4018</v>
+        <v>4100</v>
       </c>
       <c r="K15" s="6" t="inlineStr"/>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="n">
-        <v>7602</v>
+        <v>7594</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>7405</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="16">
@@ -2462,30 +2462,30 @@
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1677</v>
+        <v>1616</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>1163</v>
+        <v>1014</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2005</v>
+        <v>2166</v>
       </c>
       <c r="K18" s="6" t="inlineStr"/>
       <c r="L18" s="6" t="n">
-        <v>1023</v>
+        <v>1158</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>3243</v>
+        <v>2696</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5128</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="19">
@@ -2498,30 +2498,30 @@
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>12039</v>
+        <v>10552</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10446</v>
+        <v>10107</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>10234</v>
+        <v>9354</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9860</v>
+        <v>10304</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12539</v>
+        <v>12684</v>
       </c>
       <c r="K19" s="6" t="inlineStr"/>
       <c r="L19" s="6" t="n">
-        <v>9590</v>
+        <v>9999</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>16588</v>
+        <v>16178</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>18680</v>
+        <v>17698</v>
       </c>
     </row>
     <row r="20">
@@ -2656,20 +2656,20 @@
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="n">
-        <v>5458</v>
+        <v>5014</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>4475</v>
+        <v>3658</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4980</v>
+        <v>5414</v>
       </c>
       <c r="L23" s="6" t="inlineStr"/>
       <c r="M23" s="6" t="inlineStr"/>
       <c r="N23" s="6" t="n">
-        <v>4273</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="24">
@@ -2806,18 +2806,18 @@
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>7232</v>
+        <v>7187</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3223</v>
+        <v>3701</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="n">
-        <v>7979</v>
+        <v>7247</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>3232</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="28">
@@ -2922,30 +2922,30 @@
       <c r="C30" s="6" t="inlineStr"/>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="n">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2219</v>
+        <v>2693</v>
       </c>
       <c r="G30" s="6" t="inlineStr"/>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>4550</v>
+        <v>4356</v>
       </c>
       <c r="K30" s="6" t="inlineStr"/>
       <c r="L30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2427</v>
+        <v>2446</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>8917</v>
+        <v>9182</v>
       </c>
     </row>
     <row r="31">
@@ -2958,30 +2958,30 @@
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>9832</v>
+        <v>10261</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>13125</v>
+        <v>12257</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>7895</v>
+        <v>5703</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>8819</v>
+        <v>8997</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>22770</v>
+        <v>21059</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
       <c r="L31" s="6" t="n">
-        <v>6303</v>
+        <v>5841</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>14553</v>
+        <v>13921</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>29052</v>
+        <v>29986</v>
       </c>
     </row>
     <row r="32">
@@ -3100,7 +3100,7 @@
       <c r="I34" s="6" t="inlineStr"/>
       <c r="J34" s="6" t="inlineStr"/>
       <c r="K34" s="6" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L34" s="6" t="inlineStr"/>
       <c r="M34" s="6" t="n">
@@ -3118,30 +3118,30 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>5117</v>
+        <v>5978</v>
       </c>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="n">
-        <v>5568</v>
+        <v>6136</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>11040</v>
+        <v>10537</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>5954</v>
+        <v>6612</v>
       </c>
       <c r="H35" s="6" t="inlineStr"/>
       <c r="I35" s="6" t="inlineStr"/>
       <c r="J35" s="6" t="inlineStr"/>
       <c r="K35" s="6" t="n">
-        <v>8362</v>
+        <v>9141</v>
       </c>
       <c r="L35" s="6" t="inlineStr"/>
       <c r="M35" s="6" t="n">
-        <v>5957</v>
+        <v>5603</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>9861</v>
+        <v>11399</v>
       </c>
     </row>
     <row r="36">
@@ -3244,40 +3244,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>6477</v>
+        <v>6293</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>22482</v>
+        <v>22328</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>990</v>
+        <v>1313</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1986</v>
+        <v>1950</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>6338</v>
+        <v>6189</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>29252</v>
+        <v>29597</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3425</v>
+        <v>3516</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>2961</v>
+        <v>3125</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>15399</v>
+        <v>15760</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>56135</v>
+        <v>56363</v>
       </c>
     </row>
     <row r="39">
@@ -3288,40 +3288,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>8259</v>
+        <v>8169</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>6785</v>
+        <v>7070</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>22527</v>
+        <v>22429</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>48936</v>
+        <v>48972</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>9956</v>
+        <v>11112</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>11891</v>
+        <v>12056</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>21031</v>
+        <v>20622</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>53622</v>
+        <v>54760</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>15055</v>
+        <v>15213</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>14816</v>
+        <v>14415</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>35729</v>
+        <v>36606</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>94042</v>
+        <v>92692</v>
       </c>
     </row>
     <row r="40">
